--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisaxelson/Documents/Axie/tax4sa/data-raw/SARS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF2A76-C15F-1E48-9C52-5D2226560EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA54C31-EB8C-C844-9E0B-5D594B5180F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="2" r:id="rId1"/>
@@ -1553,7 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1704,35 +1706,35 @@
         <v>248</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:I2" si="0">D3+SUM(D5:D17)</f>
+        <f>D3+SUM(D5:D17)</f>
         <v>11248549</v>
       </c>
       <c r="E2" s="14">
-        <f t="shared" si="0"/>
+        <f>E3+SUM(E5:E17)</f>
         <v>13916172</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" si="0"/>
+        <f>F3+SUM(F5:F17)</f>
         <v>17417635</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" si="0"/>
+        <f>G3+SUM(G5:G17)</f>
         <v>19663867</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" si="0"/>
+        <f>H3+SUM(H5:H17)</f>
         <v>22109211</v>
       </c>
       <c r="I2" s="14">
-        <f t="shared" si="0"/>
+        <f>I3+SUM(I5:I17)</f>
         <v>26671088</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:K2" si="1">J3+SUM(J5:J17)</f>
+        <f>J3+SUM(J5:J17)</f>
         <v>34430749</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" si="1"/>
+        <f>K3+SUM(K5:K17)</f>
         <v>39580892</v>
       </c>
       <c r="L2" s="14">
@@ -1976,115 +1978,115 @@
         <v>13123316</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:AO4" si="2">SUM(N5:N12)</f>
+        <f>SUM(N5:N12)</f>
         <v>12367545</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(O5:O12)</f>
         <v>14895074</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(P5:P12)</f>
         <v>16929703</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(Q5:Q12)</f>
         <v>22737644</v>
       </c>
       <c r="R4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(R5:R12)</f>
         <v>26054303</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(S5:S12)</f>
         <v>29644876</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(T5:T12)</f>
         <v>29451968</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(U5:U12)</f>
         <v>38742930</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(V5:V12)</f>
         <v>55707799</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(W5:W12)</f>
         <v>69060285</v>
       </c>
       <c r="X4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(X5:X12)</f>
         <v>71911383</v>
       </c>
       <c r="Y4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(Y5:Y12)</f>
         <v>82675065</v>
       </c>
       <c r="Z4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(Z5:Z12)</f>
         <v>103221508</v>
       </c>
       <c r="AA4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AA5:AA12)</f>
         <v>137480462</v>
       </c>
       <c r="AB4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AB5:AB12)</f>
         <v>160990609</v>
       </c>
       <c r="AC4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AC5:AC12)</f>
         <v>185539109</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AD5:AD12)</f>
         <v>150393914.03</v>
       </c>
       <c r="AE4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AE5:AE12)</f>
         <v>150082641.17999998</v>
       </c>
       <c r="AF4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AF5:AF12)</f>
         <v>173598749.692</v>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AG5:AG12)</f>
         <v>178998096.197</v>
       </c>
       <c r="AH4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AH5:AH12)</f>
         <v>194633062.88799998</v>
       </c>
       <c r="AI4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AI5:AI12)</f>
         <v>206172681.24000001</v>
       </c>
       <c r="AJ4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AJ5:AJ12)</f>
         <v>215304416.75999999</v>
       </c>
       <c r="AK4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AK5:AK12)</f>
         <v>236007424.00000003</v>
       </c>
       <c r="AL4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AL5:AL12)</f>
         <v>245971610.53953999</v>
       </c>
       <c r="AM4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AM5:AM12)</f>
         <v>242569142.13381001</v>
       </c>
       <c r="AN4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AN5:AN12)</f>
         <v>240046915.40483993</v>
       </c>
       <c r="AO4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AO5:AO12)</f>
         <v>227434992.50809002</v>
       </c>
     </row>
@@ -2095,79 +2097,123 @@
       <c r="B5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>280</v>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D5" s="14">
-        <v>1700965</v>
+        <v>3278638</v>
       </c>
       <c r="E5" s="14">
-        <v>1598923</v>
+        <v>3820090</v>
       </c>
       <c r="F5" s="14">
-        <v>2453442</v>
+        <v>4855334</v>
       </c>
       <c r="G5" s="14">
-        <v>2532482</v>
+        <v>5113476</v>
       </c>
       <c r="H5" s="14">
-        <v>2074632</v>
+        <v>5868829</v>
       </c>
       <c r="I5" s="14">
-        <v>1694670</v>
+        <v>8236045</v>
       </c>
       <c r="J5" s="14">
-        <v>1016072</v>
+        <v>11013255</v>
       </c>
       <c r="K5" s="14">
-        <v>644367</v>
+        <v>11870475</v>
       </c>
       <c r="L5" s="14">
-        <v>523709</v>
+        <v>12490833</v>
       </c>
       <c r="M5" s="14">
-        <v>421502</v>
+        <v>12126047</v>
       </c>
       <c r="N5" s="14">
-        <v>622492</v>
+        <v>10359264</v>
       </c>
       <c r="O5" s="14">
-        <v>1172675</v>
+        <v>11961336</v>
       </c>
       <c r="P5" s="14">
-        <v>893680</v>
+        <v>14058998</v>
       </c>
       <c r="Q5" s="14">
-        <v>507674</v>
+        <v>16985002</v>
       </c>
       <c r="R5" s="14">
-        <v>332499</v>
+        <v>19696404</v>
       </c>
       <c r="S5" s="14">
-        <v>188647</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
+        <v>20417716</v>
+      </c>
+      <c r="T5" s="14">
+        <v>20971607</v>
+      </c>
+      <c r="U5" s="14">
+        <v>29491826</v>
+      </c>
+      <c r="V5" s="14">
+        <v>42354472</v>
+      </c>
+      <c r="W5" s="14">
+        <v>55745054</v>
+      </c>
+      <c r="X5" s="14">
+        <v>60880803</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>70781871</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>86160776</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>118998582</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>140119831</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>165378278</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>134883419.63999999</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>132901679.95999999</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>151626675.80500001</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>159259227.88</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>177324272.97499999</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>184925392.11000001</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>191151643.05000001</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>204431762.61000001</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>217412046.19176</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>212046051.50046</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>211520529.18472993</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>202099325.8247</v>
+      </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2176,79 +2222,103 @@
       <c r="B6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="14">
-        <v>980</v>
-      </c>
-      <c r="E6" s="14">
-        <v>541</v>
-      </c>
-      <c r="F6" s="14">
-        <v>726</v>
-      </c>
-      <c r="G6" s="14">
-        <v>27596</v>
-      </c>
-      <c r="H6" s="14">
-        <v>98216</v>
-      </c>
-      <c r="I6" s="14">
-        <v>458</v>
-      </c>
-      <c r="J6" s="14">
-        <v>10715</v>
-      </c>
-      <c r="K6" s="14">
-        <v>24211</v>
-      </c>
-      <c r="L6" s="14">
-        <v>21008</v>
-      </c>
-      <c r="M6" s="14">
-        <v>55077</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="14">
-        <v>13270</v>
+        <v>876675</v>
       </c>
       <c r="O6" s="14">
-        <v>35698</v>
+        <v>1303595</v>
       </c>
       <c r="P6" s="14">
-        <v>17942</v>
+        <v>1262242</v>
       </c>
       <c r="Q6" s="14">
-        <v>213397</v>
+        <v>1337878</v>
       </c>
       <c r="R6" s="14">
-        <v>118657</v>
+        <v>1446448</v>
       </c>
       <c r="S6" s="14">
-        <v>320437</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
+        <v>1941613</v>
+      </c>
+      <c r="T6" s="14">
+        <v>3149932</v>
+      </c>
+      <c r="U6" s="14">
+        <v>4031348</v>
+      </c>
+      <c r="V6" s="14">
+        <v>7162722</v>
+      </c>
+      <c r="W6" s="14">
+        <v>6325581</v>
+      </c>
+      <c r="X6" s="14">
+        <v>6132930</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>7487073</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>12277625</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>15291351</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>20585421</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>20017580</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>15467795.18</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>17178189.120000001</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>21965408.631999999</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>19738708.879999999</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>17308789.912999999</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>21247289.129999999</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>23934233.260000002</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>31129891.68</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>27894314.75553</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>29898035.185969997</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>27929888.157000002</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>24845362.045830004</v>
+      </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2257,57 +2327,25 @@
       <c r="B7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="14">
-        <v>187356</v>
-      </c>
-      <c r="E7" s="14">
-        <v>322038</v>
-      </c>
-      <c r="F7" s="14">
-        <v>576470</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1001008</v>
-      </c>
-      <c r="H7" s="14">
-        <v>865132</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1312365</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1780806</v>
-      </c>
-      <c r="K7" s="14">
-        <v>2221767</v>
-      </c>
-      <c r="L7" s="14">
-        <v>1027873</v>
-      </c>
-      <c r="M7" s="14">
-        <v>520600</v>
-      </c>
-      <c r="N7" s="14">
-        <v>495341</v>
-      </c>
-      <c r="O7" s="14">
-        <v>421528</v>
-      </c>
-      <c r="P7" s="14">
-        <v>696833</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>1128182</v>
-      </c>
-      <c r="R7" s="14">
-        <v>1230697</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1677585</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -2321,15 +2359,33 @@
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>218540.45</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>445769.71</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>665249.5922500001</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>625055.44738000003</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>596498.06310999999</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>490304.63756</v>
+      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -2338,123 +2394,79 @@
       <c r="B8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>186</v>
+      <c r="C8" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="D8" s="14">
-        <v>3278638</v>
+        <v>1700965</v>
       </c>
       <c r="E8" s="14">
-        <v>3820090</v>
+        <v>1598923</v>
       </c>
       <c r="F8" s="14">
-        <v>4855334</v>
+        <v>2453442</v>
       </c>
       <c r="G8" s="14">
-        <v>5113476</v>
+        <v>2532482</v>
       </c>
       <c r="H8" s="14">
-        <v>5868829</v>
+        <v>2074632</v>
       </c>
       <c r="I8" s="14">
-        <v>8236045</v>
+        <v>1694670</v>
       </c>
       <c r="J8" s="14">
-        <v>11013255</v>
+        <v>1016072</v>
       </c>
       <c r="K8" s="14">
-        <v>11870475</v>
+        <v>644367</v>
       </c>
       <c r="L8" s="14">
-        <v>12490833</v>
+        <v>523709</v>
       </c>
       <c r="M8" s="14">
-        <v>12126047</v>
+        <v>421502</v>
       </c>
       <c r="N8" s="14">
-        <v>10359264</v>
+        <v>622492</v>
       </c>
       <c r="O8" s="14">
-        <v>11961336</v>
+        <v>1172675</v>
       </c>
       <c r="P8" s="14">
-        <v>14058998</v>
+        <v>893680</v>
       </c>
       <c r="Q8" s="14">
-        <v>16985002</v>
+        <v>507674</v>
       </c>
       <c r="R8" s="14">
-        <v>19696404</v>
+        <v>332499</v>
       </c>
       <c r="S8" s="14">
-        <v>20417716</v>
-      </c>
-      <c r="T8" s="14">
-        <v>20971607</v>
-      </c>
-      <c r="U8" s="14">
-        <v>29491826</v>
-      </c>
-      <c r="V8" s="14">
-        <v>42354472</v>
-      </c>
-      <c r="W8" s="14">
-        <v>55745054</v>
-      </c>
-      <c r="X8" s="14">
-        <v>60880803</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>70781871</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>86160776</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>118998582</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>140119831</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>165378278</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>134883419.63999999</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>132901679.95999999</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>151626675.80500001</v>
-      </c>
-      <c r="AG8" s="15">
-        <v>159259227.88</v>
-      </c>
-      <c r="AH8" s="15">
-        <v>177324272.97499999</v>
-      </c>
-      <c r="AI8" s="15">
-        <v>184925392.11000001</v>
-      </c>
-      <c r="AJ8" s="15">
-        <v>191151643.05000001</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>204431762.61000001</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>217412046.19176</v>
-      </c>
-      <c r="AM8" s="10">
-        <v>212046051.50046</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>211520529.18472993</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>202099325.8247</v>
-      </c>
+        <v>188647</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -2463,103 +2475,79 @@
       <c r="B9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="14">
+        <v>980</v>
+      </c>
+      <c r="E9" s="14">
+        <v>541</v>
+      </c>
+      <c r="F9" s="14">
+        <v>726</v>
+      </c>
+      <c r="G9" s="14">
+        <v>27596</v>
+      </c>
+      <c r="H9" s="14">
+        <v>98216</v>
+      </c>
+      <c r="I9" s="14">
+        <v>458</v>
+      </c>
+      <c r="J9" s="14">
+        <v>10715</v>
+      </c>
+      <c r="K9" s="14">
+        <v>24211</v>
+      </c>
+      <c r="L9" s="14">
+        <v>21008</v>
+      </c>
+      <c r="M9" s="14">
+        <v>55077</v>
+      </c>
       <c r="N9" s="14">
-        <v>876675</v>
+        <v>13270</v>
       </c>
       <c r="O9" s="14">
-        <v>1303595</v>
+        <v>35698</v>
       </c>
       <c r="P9" s="14">
-        <v>1262242</v>
+        <v>17942</v>
       </c>
       <c r="Q9" s="14">
-        <v>1337878</v>
+        <v>213397</v>
       </c>
       <c r="R9" s="14">
-        <v>1446448</v>
+        <v>118657</v>
       </c>
       <c r="S9" s="14">
-        <v>1941613</v>
-      </c>
-      <c r="T9" s="14">
-        <v>3149932</v>
-      </c>
-      <c r="U9" s="14">
-        <v>4031348</v>
-      </c>
-      <c r="V9" s="14">
-        <v>7162722</v>
-      </c>
-      <c r="W9" s="14">
-        <v>6325581</v>
-      </c>
-      <c r="X9" s="14">
-        <v>6132930</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>7487073</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>12277625</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>15291351</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>20585421</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>20017580</v>
-      </c>
-      <c r="AD9" s="15">
-        <v>15467795.18</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>17178189.120000001</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>21965408.631999999</v>
-      </c>
-      <c r="AG9" s="15">
-        <v>19738708.879999999</v>
-      </c>
-      <c r="AH9" s="15">
-        <v>17308789.912999999</v>
-      </c>
-      <c r="AI9" s="15">
-        <v>21247289.129999999</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>23934233.260000002</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>31129891.68</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>27894314.75553</v>
-      </c>
-      <c r="AM9" s="10">
-        <v>29898035.185969997</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>27929888.157000002</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>24845362.045830004</v>
-      </c>
+        <v>320437</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -2568,25 +2556,57 @@
       <c r="B10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="14">
+        <v>187356</v>
+      </c>
+      <c r="E10" s="14">
+        <v>322038</v>
+      </c>
+      <c r="F10" s="14">
+        <v>576470</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1001008</v>
+      </c>
+      <c r="H10" s="14">
+        <v>865132</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1312365</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1780806</v>
+      </c>
+      <c r="K10" s="14">
+        <v>2221767</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1027873</v>
+      </c>
+      <c r="M10" s="14">
+        <v>520600</v>
+      </c>
+      <c r="N10" s="14">
+        <v>495341</v>
+      </c>
+      <c r="O10" s="14">
+        <v>421528</v>
+      </c>
+      <c r="P10" s="14">
+        <v>696833</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1128182</v>
+      </c>
+      <c r="R10" s="14">
+        <v>1230697</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1677585</v>
+      </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
@@ -2600,33 +2620,15 @@
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="15">
-        <v>218540.45</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>445769.71</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>665249.5922500001</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>625055.44738000003</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>596498.06310999999</v>
-      </c>
-      <c r="AO10" s="4">
-        <v>490304.63756</v>
-      </c>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -3412,35 +3414,35 @@
         <v>195</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" ref="D20:I20" si="3">SUM(D21:D25)</f>
+        <f t="shared" ref="D20:I20" si="0">SUM(D21:D25)</f>
         <v>447923</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>421309</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>467249</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>580817</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>824315</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>822991</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20:K20" si="4">SUM(J21:J25)</f>
+        <f t="shared" ref="J20:K20" si="1">SUM(J21:J25)</f>
         <v>1033643</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1098198</v>
       </c>
       <c r="L20" s="14">
@@ -4103,35 +4105,35 @@
         <v>294</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D26:I26" si="5">SUM(D27:D61)</f>
+        <f t="shared" ref="D26:I26" si="2">SUM(D27:D61)</f>
         <v>5708273</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7913291</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10244922</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10959906</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13197157</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18196002</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" ref="J26:K26" si="6">SUM(J27:J61)</f>
+        <f t="shared" ref="J26:K26" si="3">SUM(J27:J61)</f>
         <v>23684105</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26097645</v>
       </c>
       <c r="L26" s="14">
@@ -4319,47 +4321,47 @@
         <v>147941322</v>
       </c>
       <c r="AE27" s="15">
-        <f t="shared" ref="AE27:AO27" si="7">SUM(AE28:AE30)</f>
+        <f t="shared" ref="AE27:AO27" si="4">SUM(AE28:AE30)</f>
         <v>183571439.47000003</v>
       </c>
       <c r="AF27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>191020198.53599998</v>
       </c>
       <c r="AG27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>215023035.17400002</v>
       </c>
       <c r="AH27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>237666578.87200001</v>
       </c>
       <c r="AI27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>261294787.94000003</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>281111410.02999997</v>
       </c>
       <c r="AK27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>289166722.46000004</v>
       </c>
       <c r="AL27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>297997586.56050998</v>
       </c>
       <c r="AM27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>324765977.89959002</v>
       </c>
       <c r="AN27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>346747694.24808002</v>
       </c>
       <c r="AO27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>331183557.92798984</v>
       </c>
     </row>
@@ -7386,35 +7388,35 @@
         <v>230</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" ref="D62:I62" si="8">SUM(D63:D68)</f>
+        <f t="shared" ref="D62:I62" si="5">SUM(D63:D68)</f>
         <v>1347050</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1376552</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1745016</v>
       </c>
       <c r="G62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2275636</v>
       </c>
       <c r="H62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2542107</v>
       </c>
       <c r="I62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4358751</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" ref="J62:K62" si="9">SUM(J63:J68)</f>
+        <f t="shared" ref="J62:K62" si="6">SUM(J63:J68)</f>
         <v>4903708</v>
       </c>
       <c r="K62" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4697574</v>
       </c>
       <c r="L62" s="14">
@@ -8114,35 +8116,35 @@
         <v>237</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" ref="D69:I69" si="10">D70</f>
+        <f t="shared" ref="D69:I69" si="7">D70</f>
         <v>213145</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>243793</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>272764</v>
       </c>
       <c r="G69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>321093</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>439010</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>469274</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" ref="J69:K69" si="11">J70</f>
+        <f t="shared" ref="J69:K69" si="8">J70</f>
         <v>685218</v>
       </c>
       <c r="K69" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>657267</v>
       </c>
       <c r="L69" s="14">
@@ -8844,11 +8846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HX91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
